--- a/LF/TAS/Mozambique/mz_lf_tas1_3_resultat_fts_202011.xlsx
+++ b/LF/TAS/Mozambique/mz_lf_tas1_3_resultat_fts_202011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Mozambique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD5D78A-7860-4840-AD99-33A3BE3E2660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF5FADA-F740-4C42-A33A-C545234FA2D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="217">
   <si>
     <t>form_title</t>
   </si>
@@ -200,12 +200,6 @@
     <t>Invalid</t>
   </si>
   <si>
-    <t>Positif</t>
-  </si>
-  <si>
-    <t>Négatif</t>
-  </si>
-  <si>
     <t>results_list</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
   </si>
   <si>
     <t>Portuguese</t>
-  </si>
-  <si>
-    <t>3. TAS FL - Resultados FTS</t>
   </si>
   <si>
     <t>${d_final_result} = 'Positivo'</t>
@@ -690,9 +681,6 @@
     <t>select_one cluster_code_list</t>
   </si>
   <si>
-    <t>mz_lf_tas1_3_resultat_fts_202011</t>
-  </si>
-  <si>
     <t>eu_list = ${d_eu}</t>
   </si>
   <si>
@@ -700,6 +688,12 @@
   </si>
   <si>
     <t>site_names = ${d_cluster_name}</t>
+  </si>
+  <si>
+    <t>3. TAS FL - Resultados FTS V2</t>
+  </si>
+  <si>
+    <t>mz_lf_tas1_3_resultat_fts_202011_v2</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1326,10 +1320,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
@@ -1341,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>8</v>
@@ -1362,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="49" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.4">
@@ -1379,20 +1373,20 @@
         <v>19</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="16"/>
@@ -1406,7 +1400,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>28</v>
@@ -1429,17 +1423,17 @@
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="40"/>
@@ -1449,27 +1443,27 @@
       <c r="K4" s="37"/>
       <c r="L4" s="43"/>
       <c r="M4" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N4" s="43"/>
       <c r="O4" s="43"/>
       <c r="P4" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="40"/>
@@ -1479,27 +1473,27 @@
       <c r="K5" s="37"/>
       <c r="L5" s="43"/>
       <c r="M5" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="43"/>
       <c r="P5" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="40"/>
@@ -1509,12 +1503,12 @@
       <c r="K6" s="37"/>
       <c r="L6" s="43"/>
       <c r="M6" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
       <c r="P6" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
@@ -1522,30 +1516,30 @@
         <v>20</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N7" s="20"/>
       <c r="O7" s="24"/>
@@ -1556,14 +1550,14 @@
         <v>24</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="26" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="16"/>
@@ -1572,16 +1566,16 @@
       <c r="J8" s="15"/>
       <c r="K8" s="20"/>
       <c r="L8" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="24"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1596,7 +1590,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
@@ -1606,7 +1600,7 @@
       <c r="K9" s="20"/>
       <c r="L9" s="12"/>
       <c r="M9" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -1614,7 +1608,7 @@
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>33</v>
@@ -1623,13 +1617,13 @@
         <v>51</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1638,7 +1632,7 @@
       <c r="K10" s="28"/>
       <c r="L10" s="12"/>
       <c r="M10" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -1646,7 +1640,7 @@
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>34</v>
@@ -1656,7 +1650,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="11"/>
@@ -1664,11 +1658,11 @@
       <c r="I11" s="30"/>
       <c r="J11" s="23"/>
       <c r="K11" s="28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -1686,7 +1680,7 @@
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="11"/>
@@ -1694,11 +1688,11 @@
       <c r="I12" s="30"/>
       <c r="J12" s="23"/>
       <c r="K12" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -1721,10 +1715,10 @@
       <c r="J13" s="23"/>
       <c r="K13" s="28"/>
       <c r="L13" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -1738,11 +1732,11 @@
         <v>39</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="11"/>
@@ -1750,7 +1744,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="23"/>
       <c r="K14" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="24"/>
@@ -1763,14 +1757,14 @@
         <v>24</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="11"/>
@@ -1778,11 +1772,11 @@
       <c r="I15" s="30"/>
       <c r="J15" s="23"/>
       <c r="K15" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -1790,7 +1784,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>40</v>
@@ -1799,24 +1793,24 @@
         <v>53</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="33"/>
       <c r="J16" s="34"/>
       <c r="K16" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L16" s="31"/>
       <c r="M16" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
@@ -1824,7 +1818,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>41</v>
@@ -1834,7 +1828,7 @@
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="31"/>
@@ -1842,11 +1836,11 @@
       <c r="I17" s="33"/>
       <c r="J17" s="34"/>
       <c r="K17" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L17" s="31"/>
       <c r="M17" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
@@ -1864,7 +1858,7 @@
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="31"/>
@@ -1872,11 +1866,11 @@
       <c r="I18" s="33"/>
       <c r="J18" s="34"/>
       <c r="K18" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L18" s="31"/>
       <c r="M18" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
@@ -1898,10 +1892,10 @@
       <c r="I19" s="33"/>
       <c r="J19" s="34"/>
       <c r="K19" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
@@ -1925,7 +1919,7 @@
       <c r="J20" s="34"/>
       <c r="K20" s="28"/>
       <c r="L20" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
@@ -1940,11 +1934,11 @@
         <v>45</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="31"/>
@@ -1970,7 +1964,7 @@
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="34" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="31"/>
@@ -1978,7 +1972,7 @@
       <c r="I22" s="33"/>
       <c r="J22" s="34"/>
       <c r="K22" s="28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
@@ -1998,7 +1992,7 @@
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="31"/>
@@ -2017,7 +2011,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
@@ -2039,7 +2033,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
@@ -2067,8 +2061,8 @@
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -2090,7 +2084,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="48" t="s">
         <v>21</v>
@@ -2099,147 +2093,147 @@
         <v>23</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2256,13 +2250,13 @@
         <v>21</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
@@ -2273,13 +2267,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
@@ -2290,16 +2284,16 @@
         <v>23</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -2309,16 +2303,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
@@ -2328,16 +2322,16 @@
         <v>23</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
@@ -2347,1163 +2341,1163 @@
         <v>23</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G25" s="31"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G30" s="31"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G31" s="31"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G33" s="31"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G34" s="31"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E35" s="31"/>
       <c r="F35" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G35" s="31"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E36" s="31"/>
       <c r="F36" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G36" s="31"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G37" s="31"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G38" s="31"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G39" s="31"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G40" s="31"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G41" s="31"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G42" s="31"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G43" s="31"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G44" s="31"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E45" s="31"/>
       <c r="F45" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G45" s="31"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G46" s="31"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G47" s="31"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G48" s="31"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E49" s="31"/>
       <c r="F49" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G49" s="31"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E50" s="31"/>
       <c r="F50" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G50" s="31"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E51" s="31"/>
       <c r="F51" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G51" s="31"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E52" s="31"/>
       <c r="F52" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G52" s="31"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G53" s="31"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E54" s="31"/>
       <c r="F54" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G54" s="31"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G55" s="31"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G56" s="31"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E57" s="31"/>
       <c r="F57" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G57" s="31"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E58" s="31"/>
       <c r="F58" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G58" s="31"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E59" s="31"/>
       <c r="F59" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G59" s="31"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E60" s="31"/>
       <c r="F60" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G60" s="31"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E61" s="31"/>
       <c r="F61" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G61" s="31"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E62" s="31"/>
       <c r="F62" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G62" s="31"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G63" s="31"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E64" s="31"/>
       <c r="F64" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G64" s="31"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E65" s="31"/>
       <c r="F65" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G65" s="31"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E66" s="31"/>
       <c r="F66" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G66" s="31"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E67" s="31"/>
       <c r="F67" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G67" s="31"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E68" s="31"/>
       <c r="F68" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G68" s="31"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E69" s="31"/>
       <c r="F69" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G69" s="31"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E70" s="31"/>
       <c r="F70" s="31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G70" s="31"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E71" s="31"/>
       <c r="F71" s="31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G71" s="31"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E72" s="31"/>
       <c r="F72" s="31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G72" s="31"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E73" s="31"/>
       <c r="F73" s="31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G73" s="31"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E74" s="31"/>
       <c r="F74" s="31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G74" s="31"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E75" s="31"/>
       <c r="F75" s="31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G75" s="31"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E76" s="31"/>
       <c r="F76" s="31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G76" s="31"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E77" s="31"/>
       <c r="F77" s="31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G77" s="31"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E78" s="31"/>
       <c r="F78" s="31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G78" s="31"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B79" s="31">
         <v>101</v>
@@ -3517,12 +3511,12 @@
       <c r="E79" s="31"/>
       <c r="F79" s="31"/>
       <c r="G79" s="31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B80" s="31">
         <v>102</v>
@@ -3536,12 +3530,12 @@
       <c r="E80" s="31"/>
       <c r="F80" s="31"/>
       <c r="G80" s="31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B81" s="31">
         <v>103</v>
@@ -3555,12 +3549,12 @@
       <c r="E81" s="31"/>
       <c r="F81" s="31"/>
       <c r="G81" s="31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B82" s="31">
         <v>104</v>
@@ -3574,12 +3568,12 @@
       <c r="E82" s="31"/>
       <c r="F82" s="31"/>
       <c r="G82" s="31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B83" s="31">
         <v>105</v>
@@ -3593,12 +3587,12 @@
       <c r="E83" s="31"/>
       <c r="F83" s="31"/>
       <c r="G83" s="31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B84" s="31">
         <v>106</v>
@@ -3612,12 +3606,12 @@
       <c r="E84" s="31"/>
       <c r="F84" s="31"/>
       <c r="G84" s="31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B85" s="31">
         <v>107</v>
@@ -3631,12 +3625,12 @@
       <c r="E85" s="31"/>
       <c r="F85" s="31"/>
       <c r="G85" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B86" s="31">
         <v>108</v>
@@ -3650,12 +3644,12 @@
       <c r="E86" s="31"/>
       <c r="F86" s="31"/>
       <c r="G86" s="31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B87" s="31">
         <v>109</v>
@@ -3669,12 +3663,12 @@
       <c r="E87" s="31"/>
       <c r="F87" s="31"/>
       <c r="G87" s="31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B88" s="31">
         <v>110</v>
@@ -3688,12 +3682,12 @@
       <c r="E88" s="31"/>
       <c r="F88" s="31"/>
       <c r="G88" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B89" s="31">
         <v>111</v>
@@ -3707,12 +3701,12 @@
       <c r="E89" s="31"/>
       <c r="F89" s="31"/>
       <c r="G89" s="31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B90" s="31">
         <v>112</v>
@@ -3726,12 +3720,12 @@
       <c r="E90" s="31"/>
       <c r="F90" s="31"/>
       <c r="G90" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B91" s="31">
         <v>113</v>
@@ -3745,12 +3739,12 @@
       <c r="E91" s="31"/>
       <c r="F91" s="31"/>
       <c r="G91" s="31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B92" s="31">
         <v>114</v>
@@ -3764,12 +3758,12 @@
       <c r="E92" s="31"/>
       <c r="F92" s="31"/>
       <c r="G92" s="31" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B93" s="31">
         <v>115</v>
@@ -3783,12 +3777,12 @@
       <c r="E93" s="31"/>
       <c r="F93" s="31"/>
       <c r="G93" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B94" s="31">
         <v>116</v>
@@ -3802,12 +3796,12 @@
       <c r="E94" s="31"/>
       <c r="F94" s="31"/>
       <c r="G94" s="31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B95" s="31">
         <v>117</v>
@@ -3821,12 +3815,12 @@
       <c r="E95" s="31"/>
       <c r="F95" s="31"/>
       <c r="G95" s="31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B96" s="31">
         <v>118</v>
@@ -3840,12 +3834,12 @@
       <c r="E96" s="31"/>
       <c r="F96" s="31"/>
       <c r="G96" s="31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B97" s="31">
         <v>119</v>
@@ -3859,12 +3853,12 @@
       <c r="E97" s="31"/>
       <c r="F97" s="31"/>
       <c r="G97" s="31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B98" s="31">
         <v>120</v>
@@ -3878,12 +3872,12 @@
       <c r="E98" s="31"/>
       <c r="F98" s="31"/>
       <c r="G98" s="31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B99" s="31">
         <v>121</v>
@@ -3897,12 +3891,12 @@
       <c r="E99" s="31"/>
       <c r="F99" s="31"/>
       <c r="G99" s="31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B100" s="31">
         <v>122</v>
@@ -3916,12 +3910,12 @@
       <c r="E100" s="31"/>
       <c r="F100" s="31"/>
       <c r="G100" s="31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B101" s="31">
         <v>123</v>
@@ -3935,12 +3929,12 @@
       <c r="E101" s="31"/>
       <c r="F101" s="31"/>
       <c r="G101" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B102" s="31">
         <v>124</v>
@@ -3954,12 +3948,12 @@
       <c r="E102" s="31"/>
       <c r="F102" s="31"/>
       <c r="G102" s="31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B103" s="31">
         <v>125</v>
@@ -3973,12 +3967,12 @@
       <c r="E103" s="31"/>
       <c r="F103" s="31"/>
       <c r="G103" s="31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B104" s="31">
         <v>126</v>
@@ -3992,12 +3986,12 @@
       <c r="E104" s="31"/>
       <c r="F104" s="31"/>
       <c r="G104" s="31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B105" s="31">
         <v>127</v>
@@ -4011,12 +4005,12 @@
       <c r="E105" s="31"/>
       <c r="F105" s="31"/>
       <c r="G105" s="31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B106" s="31">
         <v>128</v>
@@ -4030,12 +4024,12 @@
       <c r="E106" s="31"/>
       <c r="F106" s="31"/>
       <c r="G106" s="31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B107" s="31">
         <v>129</v>
@@ -4049,12 +4043,12 @@
       <c r="E107" s="31"/>
       <c r="F107" s="31"/>
       <c r="G107" s="31" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B108" s="31">
         <v>130</v>
@@ -4068,12 +4062,12 @@
       <c r="E108" s="31"/>
       <c r="F108" s="31"/>
       <c r="G108" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B109" s="31">
         <v>131</v>
@@ -4087,12 +4081,12 @@
       <c r="E109" s="31"/>
       <c r="F109" s="31"/>
       <c r="G109" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B110" s="31">
         <v>132</v>
@@ -4106,12 +4100,12 @@
       <c r="E110" s="31"/>
       <c r="F110" s="31"/>
       <c r="G110" s="31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B111" s="31">
         <v>133</v>
@@ -4125,12 +4119,12 @@
       <c r="E111" s="31"/>
       <c r="F111" s="31"/>
       <c r="G111" s="31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B112" s="31">
         <v>134</v>
@@ -4144,12 +4138,12 @@
       <c r="E112" s="31"/>
       <c r="F112" s="31"/>
       <c r="G112" s="31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B113" s="31">
         <v>135</v>
@@ -4163,12 +4157,12 @@
       <c r="E113" s="31"/>
       <c r="F113" s="31"/>
       <c r="G113" s="31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B114" s="31">
         <v>136</v>
@@ -4182,12 +4176,12 @@
       <c r="E114" s="31"/>
       <c r="F114" s="31"/>
       <c r="G114" s="31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B115" s="31">
         <v>137</v>
@@ -4201,12 +4195,12 @@
       <c r="E115" s="31"/>
       <c r="F115" s="31"/>
       <c r="G115" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B116" s="31">
         <v>138</v>
@@ -4220,12 +4214,12 @@
       <c r="E116" s="31"/>
       <c r="F116" s="31"/>
       <c r="G116" s="31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B117" s="31">
         <v>139</v>
@@ -4239,12 +4233,12 @@
       <c r="E117" s="31"/>
       <c r="F117" s="31"/>
       <c r="G117" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B118" s="31">
         <v>140</v>
@@ -4258,12 +4252,12 @@
       <c r="E118" s="31"/>
       <c r="F118" s="31"/>
       <c r="G118" s="31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B119" s="31">
         <v>141</v>
@@ -4277,12 +4271,12 @@
       <c r="E119" s="31"/>
       <c r="F119" s="31"/>
       <c r="G119" s="31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B120" s="31">
         <v>142</v>
@@ -4296,12 +4290,12 @@
       <c r="E120" s="31"/>
       <c r="F120" s="31"/>
       <c r="G120" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B121" s="31">
         <v>143</v>
@@ -4315,12 +4309,12 @@
       <c r="E121" s="31"/>
       <c r="F121" s="31"/>
       <c r="G121" s="31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B122" s="31">
         <v>144</v>
@@ -4334,12 +4328,12 @@
       <c r="E122" s="31"/>
       <c r="F122" s="31"/>
       <c r="G122" s="31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B123" s="31">
         <v>145</v>
@@ -4353,12 +4347,12 @@
       <c r="E123" s="31"/>
       <c r="F123" s="31"/>
       <c r="G123" s="31" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B124" s="31">
         <v>146</v>
@@ -4372,12 +4366,12 @@
       <c r="E124" s="31"/>
       <c r="F124" s="31"/>
       <c r="G124" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B125" s="31">
         <v>147</v>
@@ -4391,12 +4385,12 @@
       <c r="E125" s="31"/>
       <c r="F125" s="31"/>
       <c r="G125" s="31" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B126" s="31">
         <v>148</v>
@@ -4410,12 +4404,12 @@
       <c r="E126" s="31"/>
       <c r="F126" s="31"/>
       <c r="G126" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B127" s="31">
         <v>149</v>
@@ -4429,12 +4423,12 @@
       <c r="E127" s="31"/>
       <c r="F127" s="31"/>
       <c r="G127" s="31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B128" s="31">
         <v>150</v>
@@ -4448,12 +4442,12 @@
       <c r="E128" s="31"/>
       <c r="F128" s="31"/>
       <c r="G128" s="31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B129" s="31">
         <v>151</v>
@@ -4467,12 +4461,12 @@
       <c r="E129" s="31"/>
       <c r="F129" s="31"/>
       <c r="G129" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B130" s="31">
         <v>152</v>
@@ -4486,12 +4480,12 @@
       <c r="E130" s="31"/>
       <c r="F130" s="31"/>
       <c r="G130" s="31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B131" s="31">
         <v>153</v>
@@ -4505,12 +4499,12 @@
       <c r="E131" s="31"/>
       <c r="F131" s="31"/>
       <c r="G131" s="31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B132" s="31">
         <v>154</v>
@@ -4524,12 +4518,12 @@
       <c r="E132" s="31"/>
       <c r="F132" s="31"/>
       <c r="G132" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B133" s="31">
         <v>155</v>
@@ -4543,12 +4537,12 @@
       <c r="E133" s="31"/>
       <c r="F133" s="31"/>
       <c r="G133" s="31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B134" s="31">
         <v>156</v>
@@ -4562,12 +4556,12 @@
       <c r="E134" s="31"/>
       <c r="F134" s="31"/>
       <c r="G134" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B135" s="31">
         <v>157</v>
@@ -4581,12 +4575,12 @@
       <c r="E135" s="31"/>
       <c r="F135" s="31"/>
       <c r="G135" s="31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B136" s="31">
         <v>158</v>
@@ -4600,12 +4594,12 @@
       <c r="E136" s="31"/>
       <c r="F136" s="31"/>
       <c r="G136" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B137" s="31">
         <v>159</v>
@@ -4619,12 +4613,12 @@
       <c r="E137" s="31"/>
       <c r="F137" s="31"/>
       <c r="G137" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B138" s="31">
         <v>160</v>
@@ -4638,7 +4632,7 @@
       <c r="E138" s="31"/>
       <c r="F138" s="31"/>
       <c r="G138" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4654,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -4681,16 +4675,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C2">
         <v>20201111</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Mozambique/mz_lf_tas1_3_resultat_fts_202011.xlsx
+++ b/LF/TAS/Mozambique/mz_lf_tas1_3_resultat_fts_202011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Mozambique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF5FADA-F740-4C42-A33A-C545234FA2D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4697813E-7F66-4497-A7DA-553648FB22C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -604,15 +604,6 @@
     <t>Enter the sequence ID</t>
   </si>
   <si>
-    <t>. &gt; 0</t>
-  </si>
-  <si>
-    <t>The number must be greater than 0</t>
-  </si>
-  <si>
-    <t>O número deve ser maior que 0</t>
-  </si>
-  <si>
     <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
   </si>
   <si>
@@ -690,10 +681,19 @@
     <t>site_names = ${d_cluster_name}</t>
   </si>
   <si>
-    <t>3. TAS FL - Resultados FTS V2</t>
-  </si>
-  <si>
-    <t>mz_lf_tas1_3_resultat_fts_202011_v2</t>
+    <t>regex(.,'^[0-9]{2}-[0-9]{1,4}$')</t>
+  </si>
+  <si>
+    <t>The number must be the recorder ID plus the participant number. Ex: 12-1</t>
+  </si>
+  <si>
+    <t>Le numéro doit être l'identifiant de l'enregistreur plus le numéro du participant. Ex: 12-1</t>
+  </si>
+  <si>
+    <t>3. TAS FL - Resultados FTS V3</t>
+  </si>
+  <si>
+    <t>mz_lf_tas1_3_resultat_fts_202011_v3</t>
   </si>
 </sst>
 </file>
@@ -1279,11 +1279,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -1296,7 +1296,7 @@
     <col min="6" max="6" width="47.38671875" customWidth="1"/>
     <col min="7" max="7" width="12.609375" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
     <col min="10" max="10" width="29.5" customWidth="1"/>
     <col min="11" max="11" width="30.609375" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.609375" customWidth="1"/>
@@ -1356,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.4">
@@ -1423,7 +1423,7 @@
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>115</v>
@@ -1448,12 +1448,12 @@
       <c r="N4" s="43"/>
       <c r="O4" s="43"/>
       <c r="P4" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>116</v>
@@ -1478,12 +1478,12 @@
       <c r="N5" s="43"/>
       <c r="O5" s="43"/>
       <c r="P5" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>117</v>
@@ -1508,33 +1508,33 @@
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
       <c r="P6" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>186</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="12" t="s">
-        <v>187</v>
+      <c r="H7" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="12"/>
@@ -1550,14 +1550,14 @@
         <v>24</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="16"/>
@@ -1566,7 +1566,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="20"/>
       <c r="L8" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>71</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
@@ -1620,7 +1620,7 @@
         <v>82</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>83</v>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="11"/>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="11"/>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="11"/>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="11"/>
@@ -1796,7 +1796,7 @@
         <v>82</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>83</v>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="31"/>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="31"/>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="31"/>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="31"/>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="31"/>
@@ -2011,7 +2011,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
@@ -2033,7 +2033,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
@@ -4648,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
